--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Sema3c-Nrp1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Sema3c-Nrp1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,19 +82,19 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Sema3c</t>
+  </si>
+  <si>
+    <t>Nrp1</t>
+  </si>
+  <si>
     <t>Inflammatory-Mac</t>
   </si>
   <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Sema3c</t>
-  </si>
-  <si>
-    <t>Nrp1</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T26"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,10 +525,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -540,16 +540,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.5255753333333333</v>
+        <v>0.253602</v>
       </c>
       <c r="H2">
-        <v>1.576726</v>
+        <v>0.760806</v>
       </c>
       <c r="I2">
-        <v>0.03954912334870177</v>
+        <v>0.02086522507875511</v>
       </c>
       <c r="J2">
-        <v>0.04071472570819976</v>
+        <v>0.02106763788228267</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>109.1447706666667</v>
+        <v>63.46725166666666</v>
       </c>
       <c r="N2">
-        <v>327.434312</v>
+        <v>190.401755</v>
       </c>
       <c r="O2">
-        <v>0.3535542089399963</v>
+        <v>0.2354497988808272</v>
       </c>
       <c r="P2">
-        <v>0.3655959674582361</v>
+        <v>0.2397164477183668</v>
       </c>
       <c r="Q2">
-        <v>57.36379922472354</v>
+        <v>16.09542195717</v>
       </c>
       <c r="R2">
-        <v>516.2741930225119</v>
+        <v>144.85879761453</v>
       </c>
       <c r="S2">
-        <v>0.0139827590198206</v>
+        <v>0.004912713048396083</v>
       </c>
       <c r="T2">
-        <v>0.01488513953508601</v>
+        <v>0.005050259314957698</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -602,16 +602,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.5255753333333333</v>
+        <v>0.253602</v>
       </c>
       <c r="H3">
-        <v>1.576726</v>
+        <v>0.760806</v>
       </c>
       <c r="I3">
-        <v>0.03954912334870177</v>
+        <v>0.02086522507875511</v>
       </c>
       <c r="J3">
-        <v>0.04071472570819976</v>
+        <v>0.02106763788228267</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>143.942475</v>
       </c>
       <c r="O3">
-        <v>0.155424969272891</v>
+        <v>0.1779985000094065</v>
       </c>
       <c r="P3">
-        <v>0.1607186127944892</v>
+        <v>0.1812240584798697</v>
       </c>
       <c r="Q3">
-        <v>25.21753809298333</v>
+        <v>12.16803318165</v>
       </c>
       <c r="R3">
-        <v>226.95784283685</v>
+        <v>109.51229863485</v>
       </c>
       <c r="S3">
-        <v>0.006146921281241748</v>
+        <v>0.003713978766377059</v>
       </c>
       <c r="T3">
-        <v>0.006543614236129991</v>
+        <v>0.003817962839611513</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,13 +649,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>25</v>
-      </c>
-      <c r="C4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" t="s">
-        <v>22</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -664,16 +664,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.5255753333333333</v>
+        <v>0.253602</v>
       </c>
       <c r="H4">
-        <v>1.576726</v>
+        <v>0.760806</v>
       </c>
       <c r="I4">
-        <v>0.03954912334870177</v>
+        <v>0.02086522507875511</v>
       </c>
       <c r="J4">
-        <v>0.04071472570819976</v>
+        <v>0.02106763788228267</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>62.26741999999999</v>
+        <v>64.53809233333334</v>
       </c>
       <c r="N4">
-        <v>186.80226</v>
+        <v>193.614277</v>
       </c>
       <c r="O4">
-        <v>0.2017037397794264</v>
+        <v>0.2394223865221556</v>
       </c>
       <c r="P4">
-        <v>0.2085735992386923</v>
+        <v>0.243761023683841</v>
       </c>
       <c r="Q4">
-        <v>32.72622002230666</v>
+        <v>16.366989291918</v>
       </c>
       <c r="R4">
-        <v>294.53598020076</v>
+        <v>147.302903627262</v>
       </c>
       <c r="S4">
-        <v>0.00797720608443098</v>
+        <v>0.004995601983677481</v>
       </c>
       <c r="T4">
-        <v>0.00849201688297534</v>
+        <v>0.005135468976785693</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,13 +711,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -726,16 +726,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.5255753333333333</v>
+        <v>0.253602</v>
       </c>
       <c r="H5">
-        <v>1.576726</v>
+        <v>0.760806</v>
       </c>
       <c r="I5">
-        <v>0.03954912334870177</v>
+        <v>0.02086522507875511</v>
       </c>
       <c r="J5">
-        <v>0.04071472570819976</v>
+        <v>0.02106763788228267</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>30.503993</v>
+        <v>14.3933435</v>
       </c>
       <c r="N5">
-        <v>61.007986</v>
+        <v>28.786687</v>
       </c>
       <c r="O5">
-        <v>0.09881201864964768</v>
+        <v>0.0533961963580272</v>
       </c>
       <c r="P5">
-        <v>0.06811831517629259</v>
+        <v>0.03624253541791403</v>
       </c>
       <c r="Q5">
-        <v>16.03214628897267</v>
+        <v>3.650180698287</v>
       </c>
       <c r="R5">
-        <v>96.192877733836</v>
+        <v>21.901084189722</v>
       </c>
       <c r="S5">
-        <v>0.003907928713909136</v>
+        <v>0.001114123655359641</v>
       </c>
       <c r="T5">
-        <v>0.002773418518107453</v>
+        <v>0.0007635446121204171</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,13 +773,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
         <v>26</v>
-      </c>
-      <c r="D6" t="s">
-        <v>24</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -788,16 +788,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.5255753333333333</v>
+        <v>0.253602</v>
       </c>
       <c r="H6">
-        <v>1.576726</v>
+        <v>0.760806</v>
       </c>
       <c r="I6">
-        <v>0.03954912334870177</v>
+        <v>0.02086522507875511</v>
       </c>
       <c r="J6">
-        <v>0.04071472570819976</v>
+        <v>0.02106763788228267</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>58.81030666666667</v>
+        <v>79.17795566666666</v>
       </c>
       <c r="N6">
-        <v>176.43092</v>
+        <v>237.533867</v>
       </c>
       <c r="O6">
-        <v>0.1905050633580386</v>
+        <v>0.2937331182295834</v>
       </c>
       <c r="P6">
-        <v>0.1969935053322898</v>
+        <v>0.2990559347000084</v>
       </c>
       <c r="Q6">
-        <v>30.90924652976889</v>
+        <v>20.079687912978</v>
       </c>
       <c r="R6">
-        <v>278.18321876792</v>
+        <v>180.717191216802</v>
       </c>
       <c r="S6">
-        <v>0.007534308249299316</v>
+        <v>0.006128807624944843</v>
       </c>
       <c r="T6">
-        <v>0.008020536535900968</v>
+        <v>0.006300402138807349</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,10 +835,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
@@ -856,10 +856,10 @@
         <v>34.651085</v>
       </c>
       <c r="I7">
-        <v>0.8691554745918758</v>
+        <v>0.9503114956349912</v>
       </c>
       <c r="J7">
-        <v>0.8947714576067847</v>
+        <v>0.9595304335247054</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>109.1447706666667</v>
+        <v>63.46725166666666</v>
       </c>
       <c r="N7">
-        <v>327.434312</v>
+        <v>190.401755</v>
       </c>
       <c r="O7">
-        <v>0.3535542089399963</v>
+        <v>0.2354497988808272</v>
       </c>
       <c r="P7">
-        <v>0.3655959674582361</v>
+        <v>0.2397164477183668</v>
       </c>
       <c r="Q7">
-        <v>1260.661575225391</v>
+        <v>733.0697107393528</v>
       </c>
       <c r="R7">
-        <v>11345.95417702852</v>
+        <v>6597.627396654175</v>
       </c>
       <c r="S7">
-        <v>0.3072935762651978</v>
+        <v>0.2237506505213968</v>
       </c>
       <c r="T7">
-        <v>0.3271248366977685</v>
+        <v>0.2300152270022068</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,10 +897,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
         <v>21</v>
@@ -918,10 +918,10 @@
         <v>34.651085</v>
       </c>
       <c r="I8">
-        <v>0.8691554745918758</v>
+        <v>0.9503114956349912</v>
       </c>
       <c r="J8">
-        <v>0.8947714576067847</v>
+        <v>0.9595304335247054</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>143.942475</v>
       </c>
       <c r="O8">
-        <v>0.155424969272891</v>
+        <v>0.1779985000094065</v>
       </c>
       <c r="P8">
-        <v>0.1607186127944892</v>
+        <v>0.1812240584798697</v>
       </c>
       <c r="Q8">
         <v>554.1958818150417</v>
@@ -948,10 +948,10 @@
         <v>4987.762936335375</v>
       </c>
       <c r="S8">
-        <v>0.1350884629318073</v>
+        <v>0.169154020764724</v>
       </c>
       <c r="T8">
-        <v>0.1438064274346655</v>
+        <v>0.1738899993982959</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,13 +959,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>25</v>
-      </c>
-      <c r="C9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -980,10 +980,10 @@
         <v>34.651085</v>
       </c>
       <c r="I9">
-        <v>0.8691554745918758</v>
+        <v>0.9503114956349912</v>
       </c>
       <c r="J9">
-        <v>0.8947714576067847</v>
+        <v>0.9595304335247054</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>62.26741999999999</v>
+        <v>64.53809233333334</v>
       </c>
       <c r="N9">
-        <v>186.80226</v>
+        <v>193.614277</v>
       </c>
       <c r="O9">
-        <v>0.2017037397794264</v>
+        <v>0.2394223865221556</v>
       </c>
       <c r="P9">
-        <v>0.2085735992386923</v>
+        <v>0.243761023683841</v>
       </c>
       <c r="Q9">
-        <v>719.2112210502333</v>
+        <v>745.4383077267273</v>
       </c>
       <c r="R9">
-        <v>6472.9009894521</v>
+        <v>6708.944769540546</v>
       </c>
       <c r="S9">
-        <v>0.1753119096749436</v>
+        <v>0.2275258462243687</v>
       </c>
       <c r="T9">
-        <v>0.1866257034090981</v>
+        <v>0.2338961207317819</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,13 +1021,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1042,10 +1042,10 @@
         <v>34.651085</v>
       </c>
       <c r="I10">
-        <v>0.8691554745918758</v>
+        <v>0.9503114956349912</v>
       </c>
       <c r="J10">
-        <v>0.8947714576067847</v>
+        <v>0.9595304335247054</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>30.503993</v>
+        <v>14.3933435</v>
       </c>
       <c r="N10">
-        <v>61.007986</v>
+        <v>28.786687</v>
       </c>
       <c r="O10">
-        <v>0.09881201864964768</v>
+        <v>0.0533961963580272</v>
       </c>
       <c r="P10">
-        <v>0.06811831517629259</v>
+        <v>0.03624253541791403</v>
       </c>
       <c r="Q10">
-        <v>352.3321514274684</v>
+        <v>166.2483230175658</v>
       </c>
       <c r="R10">
-        <v>2113.99290856481</v>
+        <v>997.489938105395</v>
       </c>
       <c r="S10">
-        <v>0.08588300696481582</v>
+        <v>0.0507430192222165</v>
       </c>
       <c r="T10">
-        <v>0.06095032416000968</v>
+        <v>0.03477581572158554</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,13 +1083,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
         <v>26</v>
-      </c>
-      <c r="D11" t="s">
-        <v>24</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1104,10 +1104,10 @@
         <v>34.651085</v>
       </c>
       <c r="I11">
-        <v>0.8691554745918758</v>
+        <v>0.9503114956349912</v>
       </c>
       <c r="J11">
-        <v>0.8947714576067847</v>
+        <v>0.9595304335247054</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>58.81030666666667</v>
+        <v>79.17795566666666</v>
       </c>
       <c r="N11">
-        <v>176.43092</v>
+        <v>237.533867</v>
       </c>
       <c r="O11">
-        <v>0.1905050633580386</v>
+        <v>0.2937331182295834</v>
       </c>
       <c r="P11">
-        <v>0.1969935053322898</v>
+        <v>0.2990559347000084</v>
       </c>
       <c r="Q11">
-        <v>679.2803117275779</v>
+        <v>914.5340239772994</v>
       </c>
       <c r="R11">
-        <v>6113.522805548201</v>
+        <v>8230.806215795696</v>
       </c>
       <c r="S11">
-        <v>0.1655785187551114</v>
+        <v>0.279137958902285</v>
       </c>
       <c r="T11">
-        <v>0.1762641659052429</v>
+        <v>0.286953270670835</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,31 +1145,31 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.031581</v>
+        <v>0.3503265</v>
       </c>
       <c r="H12">
-        <v>0.09474299999999999</v>
+        <v>0.700653</v>
       </c>
       <c r="I12">
-        <v>0.002376444983735952</v>
+        <v>0.02882327928625367</v>
       </c>
       <c r="J12">
-        <v>0.002446484207003607</v>
+        <v>0.01940192859301188</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>109.1447706666667</v>
+        <v>63.46725166666666</v>
       </c>
       <c r="N12">
-        <v>327.434312</v>
+        <v>190.401755</v>
       </c>
       <c r="O12">
-        <v>0.3535542089399963</v>
+        <v>0.2354497988808272</v>
       </c>
       <c r="P12">
-        <v>0.3655959674582361</v>
+        <v>0.2397164477183668</v>
       </c>
       <c r="Q12">
-        <v>3.446901002424</v>
+        <v>22.2342601410025</v>
       </c>
       <c r="R12">
-        <v>31.022109021816</v>
+        <v>133.405560846015</v>
       </c>
       <c r="S12">
-        <v>0.0008402021263141869</v>
+        <v>0.006786435311034339</v>
       </c>
       <c r="T12">
-        <v>0.0008944247605307794</v>
+        <v>0.004650961401202219</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,31 +1207,31 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D13" t="s">
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.031581</v>
+        <v>0.3503265</v>
       </c>
       <c r="H13">
-        <v>0.09474299999999999</v>
+        <v>0.700653</v>
       </c>
       <c r="I13">
-        <v>0.002376444983735952</v>
+        <v>0.02882327928625367</v>
       </c>
       <c r="J13">
-        <v>0.002446484207003607</v>
+        <v>0.01940192859301188</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>143.942475</v>
       </c>
       <c r="O13">
-        <v>0.155424969272891</v>
+        <v>0.1779985000094065</v>
       </c>
       <c r="P13">
-        <v>0.1607186127944892</v>
+        <v>0.1812240584798697</v>
       </c>
       <c r="Q13">
-        <v>1.515282434325</v>
+        <v>16.8089544893625</v>
       </c>
       <c r="R13">
-        <v>13.637541908925</v>
+        <v>100.853726936175</v>
       </c>
       <c r="S13">
-        <v>0.0003693588885758762</v>
+        <v>0.005130500478305348</v>
       </c>
       <c r="T13">
-        <v>0.0003931955479732457</v>
+        <v>0.003516096241962242</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1269,31 +1269,31 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
         <v>25</v>
       </c>
-      <c r="C14" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" t="s">
-        <v>22</v>
-      </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.031581</v>
+        <v>0.3503265</v>
       </c>
       <c r="H14">
-        <v>0.09474299999999999</v>
+        <v>0.700653</v>
       </c>
       <c r="I14">
-        <v>0.002376444983735952</v>
+        <v>0.02882327928625367</v>
       </c>
       <c r="J14">
-        <v>0.002446484207003607</v>
+        <v>0.01940192859301188</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>62.26741999999999</v>
+        <v>64.53809233333334</v>
       </c>
       <c r="N14">
-        <v>186.80226</v>
+        <v>193.614277</v>
       </c>
       <c r="O14">
-        <v>0.2017037397794264</v>
+        <v>0.2394223865221556</v>
       </c>
       <c r="P14">
-        <v>0.2085735992386923</v>
+        <v>0.243761023683841</v>
       </c>
       <c r="Q14">
-        <v>1.96646739102</v>
+        <v>22.6094040038135</v>
       </c>
       <c r="R14">
-        <v>17.69820651918</v>
+        <v>135.656424022881</v>
       </c>
       <c r="S14">
-        <v>0.0004793378405995996</v>
+        <v>0.006900938314109468</v>
       </c>
       <c r="T14">
-        <v>0.0005102720165353604</v>
+        <v>0.004729433975273362</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1331,31 +1331,31 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.031581</v>
+        <v>0.3503265</v>
       </c>
       <c r="H15">
-        <v>0.09474299999999999</v>
+        <v>0.700653</v>
       </c>
       <c r="I15">
-        <v>0.002376444983735952</v>
+        <v>0.02882327928625367</v>
       </c>
       <c r="J15">
-        <v>0.002446484207003607</v>
+        <v>0.01940192859301188</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>30.503993</v>
+        <v>14.3933435</v>
       </c>
       <c r="N15">
-        <v>61.007986</v>
+        <v>28.786687</v>
       </c>
       <c r="O15">
-        <v>0.09881201864964768</v>
+        <v>0.0533961963580272</v>
       </c>
       <c r="P15">
-        <v>0.06811831517629259</v>
+        <v>0.03624253541791403</v>
       </c>
       <c r="Q15">
-        <v>0.963346602933</v>
+        <v>5.04236965165275</v>
       </c>
       <c r="R15">
-        <v>5.780079617598</v>
+        <v>20.169478606611</v>
       </c>
       <c r="S15">
-        <v>0.0002348213260527785</v>
+        <v>0.001539053480451059</v>
       </c>
       <c r="T15">
-        <v>0.000166650382286494</v>
+        <v>0.0007031750842080722</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1393,31 +1393,31 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
         <v>26</v>
       </c>
-      <c r="D16" t="s">
-        <v>24</v>
-      </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.031581</v>
+        <v>0.3503265</v>
       </c>
       <c r="H16">
-        <v>0.09474299999999999</v>
+        <v>0.700653</v>
       </c>
       <c r="I16">
-        <v>0.002376444983735952</v>
+        <v>0.02882327928625367</v>
       </c>
       <c r="J16">
-        <v>0.002446484207003607</v>
+        <v>0.01940192859301188</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,648 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>58.81030666666667</v>
+        <v>79.17795566666666</v>
       </c>
       <c r="N16">
-        <v>176.43092</v>
+        <v>237.533867</v>
       </c>
       <c r="O16">
-        <v>0.1905050633580386</v>
+        <v>0.2937331182295834</v>
       </c>
       <c r="P16">
-        <v>0.1969935053322898</v>
+        <v>0.2990559347000084</v>
       </c>
       <c r="Q16">
-        <v>1.85728829484</v>
+        <v>27.7381360858585</v>
       </c>
       <c r="R16">
-        <v>16.71559465356</v>
+        <v>166.428816515151</v>
       </c>
       <c r="S16">
-        <v>0.0004527248021935105</v>
+        <v>0.00846635170235345</v>
       </c>
       <c r="T16">
-        <v>0.0004819414996777281</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" t="s">
-        <v>20</v>
-      </c>
-      <c r="E17">
-        <v>2</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>1.1413485</v>
-      </c>
-      <c r="H17">
-        <v>2.282697</v>
-      </c>
-      <c r="I17">
-        <v>0.08588556149328877</v>
-      </c>
-      <c r="J17">
-        <v>0.05894453584828972</v>
-      </c>
-      <c r="K17">
-        <v>3</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>109.1447706666667</v>
-      </c>
-      <c r="N17">
-        <v>327.434312</v>
-      </c>
-      <c r="O17">
-        <v>0.3535542089399963</v>
-      </c>
-      <c r="P17">
-        <v>0.3655959674582361</v>
-      </c>
-      <c r="Q17">
-        <v>124.572220283244</v>
-      </c>
-      <c r="R17">
-        <v>747.4333216994638</v>
-      </c>
-      <c r="S17">
-        <v>0.03036520175312712</v>
-      </c>
-      <c r="T17">
-        <v>0.02154988460983216</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20">
-      <c r="A18" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" t="s">
-        <v>21</v>
-      </c>
-      <c r="E18">
-        <v>2</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18">
-        <v>1.1413485</v>
-      </c>
-      <c r="H18">
-        <v>2.282697</v>
-      </c>
-      <c r="I18">
-        <v>0.08588556149328877</v>
-      </c>
-      <c r="J18">
-        <v>0.05894453584828972</v>
-      </c>
-      <c r="K18">
-        <v>3</v>
-      </c>
-      <c r="L18">
-        <v>1</v>
-      </c>
-      <c r="M18">
-        <v>47.980825</v>
-      </c>
-      <c r="N18">
-        <v>143.942475</v>
-      </c>
-      <c r="O18">
-        <v>0.155424969272891</v>
-      </c>
-      <c r="P18">
-        <v>0.1607186127944892</v>
-      </c>
-      <c r="Q18">
-        <v>54.7628426425125</v>
-      </c>
-      <c r="R18">
-        <v>328.5770558550749</v>
-      </c>
-      <c r="S18">
-        <v>0.0133487607560794</v>
-      </c>
-      <c r="T18">
-        <v>0.009473484033352162</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20">
-      <c r="A19" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" t="s">
-        <v>22</v>
-      </c>
-      <c r="E19">
-        <v>2</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>1.1413485</v>
-      </c>
-      <c r="H19">
-        <v>2.282697</v>
-      </c>
-      <c r="I19">
-        <v>0.08588556149328877</v>
-      </c>
-      <c r="J19">
-        <v>0.05894453584828972</v>
-      </c>
-      <c r="K19">
-        <v>3</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>62.26741999999999</v>
-      </c>
-      <c r="N19">
-        <v>186.80226</v>
-      </c>
-      <c r="O19">
-        <v>0.2017037397794264</v>
-      </c>
-      <c r="P19">
-        <v>0.2085735992386923</v>
-      </c>
-      <c r="Q19">
-        <v>71.06882641586999</v>
-      </c>
-      <c r="R19">
-        <v>426.4129584952199</v>
-      </c>
-      <c r="S19">
-        <v>0.01732343894625224</v>
-      </c>
-      <c r="T19">
-        <v>0.01229427399733191</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" t="s">
-        <v>23</v>
-      </c>
-      <c r="E20">
-        <v>2</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20">
-        <v>1.1413485</v>
-      </c>
-      <c r="H20">
-        <v>2.282697</v>
-      </c>
-      <c r="I20">
-        <v>0.08588556149328877</v>
-      </c>
-      <c r="J20">
-        <v>0.05894453584828972</v>
-      </c>
-      <c r="K20">
-        <v>2</v>
-      </c>
-      <c r="L20">
-        <v>1</v>
-      </c>
-      <c r="M20">
-        <v>30.503993</v>
-      </c>
-      <c r="N20">
-        <v>61.007986</v>
-      </c>
-      <c r="O20">
-        <v>0.09881201864964768</v>
-      </c>
-      <c r="P20">
-        <v>0.06811831517629259</v>
-      </c>
-      <c r="Q20">
-        <v>34.81568665456049</v>
-      </c>
-      <c r="R20">
-        <v>139.262746618242</v>
-      </c>
-      <c r="S20">
-        <v>0.008486525704010314</v>
-      </c>
-      <c r="T20">
-        <v>0.004015202470834076</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" t="s">
-        <v>24</v>
-      </c>
-      <c r="E21">
-        <v>2</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>1.1413485</v>
-      </c>
-      <c r="H21">
-        <v>2.282697</v>
-      </c>
-      <c r="I21">
-        <v>0.08588556149328877</v>
-      </c>
-      <c r="J21">
-        <v>0.05894453584828972</v>
-      </c>
-      <c r="K21">
-        <v>3</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>58.81030666666667</v>
-      </c>
-      <c r="N21">
-        <v>176.43092</v>
-      </c>
-      <c r="O21">
-        <v>0.1905050633580386</v>
-      </c>
-      <c r="P21">
-        <v>0.1969935053322898</v>
-      </c>
-      <c r="Q21">
-        <v>67.12305529854</v>
-      </c>
-      <c r="R21">
-        <v>402.73833179124</v>
-      </c>
-      <c r="S21">
-        <v>0.0163616343338197</v>
-      </c>
-      <c r="T21">
-        <v>0.01161169073693941</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22">
-        <v>1</v>
-      </c>
-      <c r="F22">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G22">
-        <v>0.04031133333333333</v>
-      </c>
-      <c r="H22">
-        <v>0.120934</v>
-      </c>
-      <c r="I22">
-        <v>0.003033395582397893</v>
-      </c>
-      <c r="J22">
-        <v>0.003122796629722241</v>
-      </c>
-      <c r="K22">
-        <v>3</v>
-      </c>
-      <c r="L22">
-        <v>1</v>
-      </c>
-      <c r="M22">
-        <v>109.1447706666667</v>
-      </c>
-      <c r="N22">
-        <v>327.434312</v>
-      </c>
-      <c r="O22">
-        <v>0.3535542089399963</v>
-      </c>
-      <c r="P22">
-        <v>0.3655959674582361</v>
-      </c>
-      <c r="Q22">
-        <v>4.399771231934221</v>
-      </c>
-      <c r="R22">
-        <v>39.597941087408</v>
-      </c>
-      <c r="S22">
-        <v>0.001072469775536766</v>
-      </c>
-      <c r="T22">
-        <v>0.001141681855018622</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" t="s">
-        <v>26</v>
-      </c>
-      <c r="D23" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23">
-        <v>1</v>
-      </c>
-      <c r="F23">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G23">
-        <v>0.04031133333333333</v>
-      </c>
-      <c r="H23">
-        <v>0.120934</v>
-      </c>
-      <c r="I23">
-        <v>0.003033395582397893</v>
-      </c>
-      <c r="J23">
-        <v>0.003122796629722241</v>
-      </c>
-      <c r="K23">
-        <v>3</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23">
-        <v>47.980825</v>
-      </c>
-      <c r="N23">
-        <v>143.942475</v>
-      </c>
-      <c r="O23">
-        <v>0.155424969272891</v>
-      </c>
-      <c r="P23">
-        <v>0.1607186127944892</v>
-      </c>
-      <c r="Q23">
-        <v>1.934171030183333</v>
-      </c>
-      <c r="R23">
-        <v>17.40753927165</v>
-      </c>
-      <c r="S23">
-        <v>0.0004714654151867158</v>
-      </c>
-      <c r="T23">
-        <v>0.0005018915423682646</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D24" t="s">
-        <v>22</v>
-      </c>
-      <c r="E24">
-        <v>1</v>
-      </c>
-      <c r="F24">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G24">
-        <v>0.04031133333333333</v>
-      </c>
-      <c r="H24">
-        <v>0.120934</v>
-      </c>
-      <c r="I24">
-        <v>0.003033395582397893</v>
-      </c>
-      <c r="J24">
-        <v>0.003122796629722241</v>
-      </c>
-      <c r="K24">
-        <v>3</v>
-      </c>
-      <c r="L24">
-        <v>1</v>
-      </c>
-      <c r="M24">
-        <v>62.26741999999999</v>
-      </c>
-      <c r="N24">
-        <v>186.80226</v>
-      </c>
-      <c r="O24">
-        <v>0.2017037397794264</v>
-      </c>
-      <c r="P24">
-        <v>0.2085735992386923</v>
-      </c>
-      <c r="Q24">
-        <v>2.510082723426666</v>
-      </c>
-      <c r="R24">
-        <v>22.59074451084</v>
-      </c>
-      <c r="S24">
-        <v>0.0006118472332000462</v>
-      </c>
-      <c r="T24">
-        <v>0.0006513329327516257</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>23</v>
-      </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G25">
-        <v>0.04031133333333333</v>
-      </c>
-      <c r="H25">
-        <v>0.120934</v>
-      </c>
-      <c r="I25">
-        <v>0.003033395582397893</v>
-      </c>
-      <c r="J25">
-        <v>0.003122796629722241</v>
-      </c>
-      <c r="K25">
-        <v>2</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>30.503993</v>
-      </c>
-      <c r="N25">
-        <v>61.007986</v>
-      </c>
-      <c r="O25">
-        <v>0.09881201864964768</v>
-      </c>
-      <c r="P25">
-        <v>0.06811831517629259</v>
-      </c>
-      <c r="Q25">
-        <v>1.229656629820667</v>
-      </c>
-      <c r="R25">
-        <v>7.377939778924</v>
-      </c>
-      <c r="S25">
-        <v>0.0002997359408596595</v>
-      </c>
-      <c r="T25">
-        <v>0.0002127196450548839</v>
-      </c>
-    </row>
-    <row r="26" spans="1:20">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" t="s">
-        <v>24</v>
-      </c>
-      <c r="E26">
-        <v>1</v>
-      </c>
-      <c r="F26">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G26">
-        <v>0.04031133333333333</v>
-      </c>
-      <c r="H26">
-        <v>0.120934</v>
-      </c>
-      <c r="I26">
-        <v>0.003033395582397893</v>
-      </c>
-      <c r="J26">
-        <v>0.003122796629722241</v>
-      </c>
-      <c r="K26">
-        <v>3</v>
-      </c>
-      <c r="L26">
-        <v>1</v>
-      </c>
-      <c r="M26">
-        <v>58.81030666666667</v>
-      </c>
-      <c r="N26">
-        <v>176.43092</v>
-      </c>
-      <c r="O26">
-        <v>0.1905050633580386</v>
-      </c>
-      <c r="P26">
-        <v>0.1969935053322898</v>
-      </c>
-      <c r="Q26">
-        <v>2.370721875475556</v>
-      </c>
-      <c r="R26">
-        <v>21.33649687928</v>
-      </c>
-      <c r="S26">
-        <v>0.000577877217614705</v>
-      </c>
-      <c r="T26">
-        <v>0.000615170654528845</v>
+        <v>0.005802261890365987</v>
       </c>
     </row>
   </sheetData>
